--- a/DIS.xlsx
+++ b/DIS.xlsx
@@ -7,12 +7,12 @@
     <workbookView activeTab="0" windowWidth="19200" windowHeight="8160"/>
   </bookViews>
   <sheets>
-    <sheet name="UNH.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="CAPM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="stde">#NAME?</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
-    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"UNH.csv"</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"CAPM"</definedName>
   </definedNames>
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
@@ -21,6 +21,9 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6" count="6">
+  <si>
+    <t>CAPM</t>
+  </si>
   <si>
     <t>Statistics</t>
   </si>
@@ -35,9 +38,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -184,12 +184,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>UNH.csv!$F$18:$F$136</c:f>
+              <c:f>CAPM!$F$18:$F$136</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>UNH.csv!$G$18:$G$136</c:f>
+              <c:f>CAPM!$G$18:$G$136</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -257,9 +257,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>695653</xdr:colOff>
+      <xdr:colOff>695651</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>164855</xdr:rowOff>
+      <xdr:rowOff>164853</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3499757" cy="2585357"/>
     <xdr:graphicFrame macro="">
@@ -289,8 +289,8 @@
   </sheetPr>
   <dimension ref="A1:N137"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0" zoomScale="175" tabSelected="1">
-      <selection activeCell="A16" sqref="A16:D16"/>
+    <sheetView workbookViewId="0" zoomScale="145" tabSelected="1">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -305,10 +305,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>CAPM</t>
-        </is>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -385,8 +383,8 @@
         </is>
       </c>
       <c r="B6" s="7">
-        <f>B15</f>
-        <v>0.67373895990285215</v>
+        <f>B15^2</f>
+        <v>0.45392418609097701</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -422,7 +420,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -435,13 +433,13 @@
         </is>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13.846153846153845">
@@ -493,7 +491,7 @@
         <v>0.037567815962375024</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="13.846153846153845">
@@ -511,7 +509,7 @@
         <v>0.28410246830390218</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="13.846153846153845">
@@ -526,16 +524,24 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Plotting</t>
+        </is>
+      </c>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:14" ht="14.25">
       <c r="A17" s="8" t="inlineStr">
@@ -544,13 +550,13 @@
         </is>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
@@ -3188,6 +3194,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <mergeCells>
     <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A1:D1"/>
